--- a/Docs/Lab2/Lab02_BBT_TCs_Form_Rezolvat.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form_Rezolvat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAProjects\03_PizzaShop\Docs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72C031-E9F8-462B-9651-1A46CC452840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E49ED-D7AD-4675-879C-DB139F1B616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
   <si>
     <t>Lab02. Black-box Testing. ECP, BVA</t>
   </si>
@@ -125,38 +125,10 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
-    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
   </si>
   <si>
     <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
@@ -385,42 +357,21 @@
     <t>table is in [1,8]</t>
   </si>
   <si>
-    <t>1.table = 3</t>
-  </si>
-  <si>
     <t>expected result</t>
   </si>
   <si>
-    <t>2.table = 9</t>
-  </si>
-  <si>
     <t>TC1_EC</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>3.table = 0</t>
-  </si>
-  <si>
-    <t>TC3_EC</t>
-  </si>
-  <si>
     <t>TC5_EC</t>
   </si>
   <si>
     <t>amount is in (0.0,1000.0]</t>
   </si>
   <si>
-    <t>4.amount = 450.65</t>
-  </si>
-  <si>
-    <t>5.amount = 0</t>
-  </si>
-  <si>
-    <t>6.amount = 1000.1</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -451,16 +402,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>TC3_BVA</t>
-  </si>
-  <si>
-    <t>TC4_BVA</t>
   </si>
   <si>
     <t>..</t>
@@ -645,6 +587,91 @@
       </rPr>
       <t xml:space="preserve"> adăugarea unei plati noi (table, amount, type);</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> adăugarea unei plati noi (table,amount,type);</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Metoda este definită la nivelul  service.</t>
+  </si>
+  <si>
+    <t>void addPayment(int table, PaymentType type, double amount)</t>
+  </si>
+  <si>
+    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii. -&gt; TABLE, AMOUNT</t>
+  </si>
+  <si>
+    <t>nu apartine CASH sau CARD</t>
+  </si>
+  <si>
+    <t>1,4,8</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>nu se poate implementa</t>
+  </si>
+  <si>
+    <t>1.table = 0</t>
+  </si>
+  <si>
+    <t>2.table = 1</t>
+  </si>
+  <si>
+    <t>3.table = 2</t>
+  </si>
+  <si>
+    <t>4. table= 7</t>
+  </si>
+  <si>
+    <t>5.table=8</t>
+  </si>
+  <si>
+    <t>6.table=9</t>
+  </si>
+  <si>
+    <t>4.amount = 0</t>
+  </si>
+  <si>
+    <t>5.amount = 0.01</t>
+  </si>
+  <si>
+    <t>6.amount = 999.99</t>
+  </si>
+  <si>
+    <t>7.amount = 1000.00</t>
+  </si>
+  <si>
+    <t>8.amount = 1000.01</t>
+  </si>
+  <si>
+    <t>TC4_EC</t>
+  </si>
+  <si>
+    <t>TC5_ECP</t>
+  </si>
+  <si>
+    <t>TC5_BVA</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1370,6 +1397,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1379,32 +1429,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,39 +1450,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,6 +1460,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1475,34 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,13 +1732,14 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
@@ -1724,7 +1753,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.4">
       <c r="C1" s="45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -1756,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -1767,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
@@ -1779,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2">
         <v>237</v>
@@ -1835,8 +1864,8 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:10" ht="14.4">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
+      <c r="B16" s="96" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1849,27 +1878,27 @@
     </row>
     <row r="18" spans="1:15" ht="14.4">
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.4">
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4">
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1886,7 +1915,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1904,7 +1933,7 @@
     <row r="24" spans="1:15" ht="14.25" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -2915,8 +2944,8 @@
   </sheetPr>
   <dimension ref="B1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2939,15 +2968,15 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.4">
       <c r="B1" s="45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:13" ht="14.4">
-      <c r="B3" s="51" t="s">
-        <v>21</v>
+      <c r="B3" s="60" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -2956,14 +2985,14 @@
       <c r="G3" s="47"/>
     </row>
     <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="62" t="s">
-        <v>22</v>
+      <c r="B5" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="47"/>
-      <c r="G5" s="52" t="s">
-        <v>23</v>
+      <c r="G5" s="61" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -2974,30 +3003,30 @@
     </row>
     <row r="6" spans="2:13" ht="14.4">
       <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="I6" s="57" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>30</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
-      <c r="L6" s="56" t="s">
-        <v>31</v>
+      <c r="L6" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="M6" s="47"/>
     </row>
@@ -3005,26 +3034,26 @@
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="57" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="47"/>
     </row>
@@ -3032,16 +3061,16 @@
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" s="10">
         <v>1</v>
@@ -3050,10 +3079,10 @@
         <v>200.5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M8" s="15"/>
     </row>
@@ -3061,16 +3090,16 @@
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" s="16">
         <v>4</v>
@@ -3079,10 +3108,10 @@
         <v>100.75</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L9" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M9" s="47"/>
     </row>
@@ -3090,18 +3119,18 @@
       <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>42</v>
+      <c r="C10" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10">
         <v>3</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" s="16">
         <v>6</v>
@@ -3110,10 +3139,10 @@
         <v>45.7</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L10" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M10" s="47"/>
     </row>
@@ -3121,16 +3150,16 @@
       <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G11" s="10">
         <v>4</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I11" s="16">
         <v>8</v>
@@ -3139,10 +3168,10 @@
         <v>28.9</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="15"/>
     </row>
@@ -3150,16 +3179,16 @@
       <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10">
         <v>5</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I12" s="16">
         <v>-10</v>
@@ -3168,10 +3197,10 @@
         <v>800.4</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M12" s="47"/>
     </row>
@@ -3179,18 +3208,18 @@
       <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>35</v>
+      <c r="C13" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10">
         <v>6</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13" s="16">
         <v>121</v>
@@ -3199,10 +3228,10 @@
         <v>455</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M13" s="47"/>
     </row>
@@ -3210,14 +3239,16 @@
       <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="G14" s="10">
         <v>7</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I14" s="16">
         <v>4</v>
@@ -3226,10 +3257,10 @@
         <v>25000</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L14" s="59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M14" s="47"/>
     </row>
@@ -3237,14 +3268,14 @@
       <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="G15" s="10">
         <v>8</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I15" s="16">
         <v>7</v>
@@ -3253,10 +3284,10 @@
         <v>-7.5</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M15" s="47"/>
     </row>
@@ -3264,20 +3295,32 @@
       <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="57"/>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3</v>
+      </c>
+      <c r="J16" s="17">
+        <v>200</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>102</v>
+      </c>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="2:13" ht="14.4">
       <c r="B17" s="11"/>
-      <c r="C17" s="60"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="G17" s="10"/>
@@ -3285,12 +3328,12 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="57"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="2:13" ht="14.4">
       <c r="B18" s="11"/>
-      <c r="C18" s="54"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="G18" s="18"/>
@@ -3298,12 +3341,12 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="57"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="2:13" ht="14.4">
       <c r="B19" s="11"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="G19" s="18"/>
@@ -3311,12 +3354,12 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="57"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="47"/>
     </row>
     <row r="20" spans="2:13" ht="14.4">
       <c r="B20" s="11"/>
-      <c r="C20" s="54"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="G20" s="18"/>
@@ -3324,12 +3367,12 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="57"/>
+      <c r="L20" s="56"/>
       <c r="M20" s="47"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="G21" s="10"/>
@@ -3337,21 +3380,21 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="57"/>
+      <c r="L21" s="56"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1">
       <c r="B22" s="11"/>
-      <c r="C22" s="54"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1"/>
     <row r="24" spans="2:13" ht="15.75" customHeight="1">
       <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="61"/>
+        <v>48</v>
+      </c>
+      <c r="F24" s="53"/>
       <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1"/>
@@ -4332,15 +4375,13 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L9:M9"/>
@@ -4354,13 +4395,15 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4374,8 +4417,8 @@
   </sheetPr>
   <dimension ref="B1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4400,15 +4443,15 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.4">
       <c r="B1" s="45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:15" ht="14.4">
-      <c r="B3" s="51" t="s">
-        <v>108</v>
+      <c r="B3" s="60" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -4417,14 +4460,14 @@
       <c r="G3" s="47"/>
     </row>
     <row r="5" spans="2:15" ht="14.4">
-      <c r="B5" s="68" t="s">
-        <v>53</v>
+      <c r="B5" s="69" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47"/>
       <c r="E5" s="19"/>
-      <c r="G5" s="52" t="s">
-        <v>54</v>
+      <c r="G5" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -4437,70 +4480,70 @@
     </row>
     <row r="6" spans="2:15" ht="14.25" customHeight="1">
       <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="G6" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="G6" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>59</v>
-      </c>
       <c r="K6" s="59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
       <c r="N6" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.4">
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="47"/>
-    </row>
-    <row r="7" spans="2:15" ht="14.4">
-      <c r="B7" s="60">
-        <v>1</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="O7" s="47"/>
     </row>
     <row r="8" spans="2:15" ht="14.4">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -4509,30 +4552,24 @@
         <v>1</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="22">
-        <v>3</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="22">
-        <v>33.299999999999997</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O8" s="47"/>
     </row>
     <row r="9" spans="2:15" ht="14.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -4541,29 +4578,25 @@
         <v>2</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="22">
-        <v>9</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="22">
-        <v>33.299999999999997</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O9" s="47"/>
     </row>
     <row r="10" spans="2:15" ht="14.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G10" s="10">
         <v>3</v>
       </c>
@@ -4571,126 +4604,106 @@
         <v>3</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="22">
-        <v>33.299999999999997</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O10" s="47"/>
     </row>
     <row r="11" spans="2:15" ht="14.4">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G11" s="10">
         <v>4</v>
       </c>
       <c r="H11" s="11">
         <v>4</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="I11" s="22"/>
       <c r="J11" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K11" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M11" s="22">
-        <v>450.65</v>
+        <v>999.99</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O11" s="47"/>
     </row>
     <row r="12" spans="2:15" ht="14.4">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G12" s="10">
         <v>5</v>
       </c>
       <c r="H12" s="11">
         <v>5</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="I12" s="22"/>
       <c r="J12" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K12" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M12" s="22">
         <v>0</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O12" s="47"/>
     </row>
     <row r="13" spans="2:15" ht="14.4">
-      <c r="B13" s="60">
+      <c r="B13" s="51">
         <v>2</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>69</v>
+      <c r="C13" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="H13" s="11">
-        <v>6</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="22">
-        <v>5</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="22">
-        <v>1000.1</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>50</v>
-      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="47"/>
     </row>
     <row r="14" spans="2:15" ht="14.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="G14" s="10">
         <v>7</v>
@@ -4705,10 +4718,10 @@
       <c r="O14" s="47"/>
     </row>
     <row r="15" spans="2:15" ht="14.4">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G15" s="10">
         <v>8</v>
@@ -4723,9 +4736,11 @@
       <c r="O15" s="47"/>
     </row>
     <row r="16" spans="2:15" ht="14.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G16" s="10">
         <v>9</v>
       </c>
@@ -4739,9 +4754,11 @@
       <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:15" ht="14.4">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="10">
         <v>10</v>
       </c>
@@ -4755,8 +4772,8 @@
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:15" ht="14.4">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="2"/>
       <c r="G18" s="10">
         <v>11</v>
@@ -4771,10 +4788,10 @@
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="2:15" ht="14.4">
-      <c r="B19" s="60">
+      <c r="B19" s="51">
         <v>3</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="2"/>
       <c r="G19" s="10">
         <v>12</v>
@@ -4789,8 +4806,8 @@
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="2:15" ht="14.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="2"/>
       <c r="G20" s="10">
         <v>13</v>
@@ -4805,50 +4822,50 @@
       <c r="O20" s="47"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="61"/>
+        <v>62</v>
+      </c>
+      <c r="G23" s="53"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
       <c r="L23" s="50"/>
       <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="67"/>
+        <v>62</v>
+      </c>
+      <c r="I24" s="68"/>
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
       <c r="L24" s="50"/>
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1"/>
@@ -5828,28 +5845,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="B1:E1"/>
@@ -5863,6 +5858,28 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5876,8 +5893,8 @@
   </sheetPr>
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5897,15 +5914,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.4">
       <c r="B1" s="45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="1:16" ht="14.4">
-      <c r="A3" s="95" t="s">
-        <v>74</v>
+      <c r="A3" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -5921,66 +5938,64 @@
       <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="14.4">
-      <c r="B4" s="53" t="s">
-        <v>75</v>
+      <c r="B4" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
       <c r="I4" s="59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="47"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="87"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="14.4">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4">
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="93" t="s">
-        <v>80</v>
+      <c r="C6" s="78" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="29">
         <v>1</v>
       </c>
@@ -5988,13 +6003,13 @@
         <v>200.5</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.4">
@@ -6002,12 +6017,12 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="31" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F7" s="32">
         <v>-10</v>
@@ -6016,40 +6031,40 @@
         <v>800.4</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4">
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.4">
@@ -6057,27 +6072,27 @@
         <f t="shared" ref="B9:B10" si="0">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="31" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F9" s="34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="35">
-        <v>33.299999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.4">
@@ -6085,54 +6100,54 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="31" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F10" s="34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G10" s="35">
-        <v>33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>73</v>
+      <c r="J10" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.4">
       <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>87</v>
-      </c>
       <c r="I11" s="27" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.4">
@@ -6152,7 +6167,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1">
       <c r="B13" s="26" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -6162,7 +6177,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
-      <c r="K13" s="88"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="50"/>
       <c r="M13" s="37"/>
     </row>
@@ -6170,115 +6185,115 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:16" ht="14.4">
-      <c r="C15" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
+      <c r="C15" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
+        <v>76</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1">
       <c r="B16" s="81" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="92"/>
+      <c r="J16" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>85</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="53" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="M16" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="P16" s="74" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.4">
       <c r="B17" s="82"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="75"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="2:16" ht="14.4">
       <c r="B18" s="39" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C18" s="40">
         <v>4</v>
       </c>
       <c r="D18" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="86" t="s">
-        <v>103</v>
+      <c r="H18" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="I18" s="47"/>
       <c r="J18" s="2"/>
       <c r="K18" s="41"/>
       <c r="L18" s="42"/>
       <c r="M18" s="44" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="41"/>
@@ -7268,6 +7283,19 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="K13:L13"/>
@@ -7284,19 +7312,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:L4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
